--- a/materialCategories.xlsx
+++ b/materialCategories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikhar.rai/Downloads/vehicleapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C492D66-D71E-E446-A76A-092C2C0C9425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CCF00E-922D-624A-ACD9-954DFA673CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37560" yWindow="-200" windowWidth="27640" windowHeight="16860" xr2:uid="{0133AA7F-BD14-D440-AA29-187B73BD8AC5}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Maetrial Categories</t>
-  </si>
-  <si>
     <t>Aggregates</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>Traffic Control Devices</t>
+  </si>
+  <si>
+    <t>Material Categories</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,42 +451,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
